--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_12.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_12.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OPEN DATA\Datasets\1. Datasets&amp; BusinessDoc_Manual\Ferry\3. Ferry Ridership\SI Ferry Ridership by Month\2020 SIF Ridership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBC60EC-2E15-42EF-99C1-5C90C59CD0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
+    <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="Weekday-Weekend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Day</t>
   </si>
@@ -65,11 +74,14 @@
   <si>
     <t>Average Sunday Ridership:</t>
   </si>
+  <si>
+    <t>TOTALS:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -164,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +224,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -492,739 +505,738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="13.7109375" style="1"/>
+    <col min="1" max="16384" width="13.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
         <v>44166</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="str">
-        <f>CHOOSE(WEEKDAY(C5),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="str">
+        <f>CHOOSE(WEEKDAY(C6),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="5">
         <v>44166</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>11099</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <v>10765</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5+E5</f>
+      <c r="F6" s="6">
+        <f>D6+E6</f>
         <v>21864</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="str">
-        <f t="shared" ref="B6:B35" si="0">CHOOSE(WEEKDAY(C6),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="str">
+        <f t="shared" ref="B7:B36" si="0">CHOOSE(WEEKDAY(C7),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Wednesday</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="5">
         <v>44167</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>10632</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>10480</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="F6:F35" si="1">D6+E6</f>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7:F36" si="1">D7+E7</f>
         <v>21112</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="str">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="5">
         <v>44168</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>10859</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>10799</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>21658</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="str">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="5">
         <v>44169</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>10502</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>10455</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>20957</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="str">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="5">
         <v>44170</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>6566</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>6297</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>12863</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="str">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>44171</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>6738</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>6507</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>13245</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="str">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>44172</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>10407</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>10320</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <f t="shared" si="1"/>
         <v>20727</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="str">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>44173</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>10510</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>10444</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>20954</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="str">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <v>44174</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>10184</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>9985</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
         <v>20169</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="str">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <v>44175</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>10837</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>10747</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>21584</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="str">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <v>44176</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>11335</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>11385</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>22720</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="str">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <v>44177</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>7645</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>7768</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>15413</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44178</v>
-      </c>
-      <c r="D17" s="7">
-        <v>7807</v>
-      </c>
-      <c r="E17" s="7">
-        <v>7418</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="1"/>
-        <v>15225</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="C18" s="5">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="D18" s="7">
-        <v>9534</v>
+        <v>7807</v>
       </c>
       <c r="E18" s="7">
-        <v>9375</v>
+        <v>7418</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="1"/>
-        <v>18909</v>
+        <v>15225</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C19" s="5">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="D19" s="7">
-        <v>10839</v>
+        <v>9534</v>
       </c>
       <c r="E19" s="7">
-        <v>10708</v>
+        <v>9375</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="1"/>
-        <v>21547</v>
+        <v>18909</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C20" s="5">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="D20" s="7">
-        <v>8774</v>
+        <v>10839</v>
       </c>
       <c r="E20" s="7">
-        <v>8868</v>
+        <v>10708</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="1"/>
-        <v>17642</v>
+        <v>21547</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C21" s="5">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="D21" s="7">
-        <v>5487</v>
+        <v>8774</v>
       </c>
       <c r="E21" s="7">
-        <v>4951</v>
+        <v>8868</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="1"/>
-        <v>10438</v>
+        <v>17642</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Friday</v>
+        <v>Thursday</v>
       </c>
       <c r="C22" s="5">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="D22" s="7">
-        <v>10252</v>
+        <v>5487</v>
       </c>
       <c r="E22" s="7">
-        <v>10044</v>
+        <v>4951</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="1"/>
-        <v>20296</v>
+        <v>10438</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="C23" s="5">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="D23" s="7">
-        <v>7536</v>
+        <v>10252</v>
       </c>
       <c r="E23" s="7">
-        <v>7318</v>
+        <v>10044</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>14854</v>
+        <v>20296</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C24" s="5">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="D24" s="7">
-        <v>6070</v>
+        <v>7536</v>
       </c>
       <c r="E24" s="7">
-        <v>5932</v>
+        <v>7318</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>12002</v>
+        <v>14854</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="C25" s="5">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="D25" s="7">
-        <v>10746</v>
+        <v>6070</v>
       </c>
       <c r="E25" s="7">
-        <v>10674</v>
+        <v>5932</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>21420</v>
+        <v>12002</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="10"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C26" s="5">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="D26" s="7">
-        <v>11226</v>
+        <v>10746</v>
       </c>
       <c r="E26" s="7">
-        <v>11193</v>
+        <v>10674</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="1"/>
-        <v>22419</v>
+        <v>21420</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C27" s="5">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="D27" s="7">
-        <v>11303</v>
+        <v>11226</v>
       </c>
       <c r="E27" s="7">
-        <v>11087</v>
+        <v>11193</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="1"/>
-        <v>22390</v>
+        <v>22419</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C28" s="5">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="D28" s="7">
-        <v>9102</v>
+        <v>11303</v>
       </c>
       <c r="E28" s="7">
-        <v>8739</v>
+        <v>11087</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="1"/>
-        <v>17841</v>
+        <v>22390</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>Thursday</v>
+      </c>
+      <c r="C29" s="5">
+        <v>44189</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9102</v>
+      </c>
+      <c r="E29" s="7">
+        <v>8739</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>17841</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C30" s="5">
         <v>44190</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>5238</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>5086</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <f t="shared" si="1"/>
         <v>10324</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="str">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C31" s="5">
         <v>44191</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>8177</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>7941</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <f t="shared" si="1"/>
         <v>16118</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="str">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C32" s="5">
         <v>44192</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>7483</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>7425</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
         <v>14908</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="str">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <v>44193</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="7">
         <v>11507</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>11455</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
         <v>22962</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="str">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>44194</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>11154</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>10984</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
         <v>22138</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="str">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C35" s="5">
         <v>44195</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>11443</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>11318</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
         <v>22761</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="str">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C36" s="5">
         <v>44196</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="7">
         <v>9160</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>9343</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="1"/>
         <v>18503</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="6">
-        <f>SUM(D5:D35)</f>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="6">
+        <f>SUM(D6:D36)</f>
         <v>290152</v>
       </c>
-      <c r="E36" s="6">
-        <f>SUM(E5:E35)</f>
+      <c r="E37" s="6">
+        <f>SUM(E6:E36)</f>
         <v>285811</v>
       </c>
-      <c r="F36" s="6">
-        <f>SUM(F5:F35)</f>
+      <c r="F37" s="6">
+        <f>SUM(F6:F36)</f>
         <v>575963</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="6">
-        <f>F36</f>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="6">
+        <f>F37</f>
         <v>575963</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B36:C36"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="13.7109375" style="1"/>
+    <col min="1" max="16384" width="13.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1245,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>CHOOSE(WEEKDAY(C5),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Tuesday</v>
@@ -1269,7 +1281,7 @@
         <v>21864</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f t="shared" ref="B6:B27" si="0">CHOOSE(WEEKDAY(C6),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Wednesday</v>
@@ -1288,7 +1300,7 @@
         <v>21112</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1307,7 +1319,7 @@
         <v>21658</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1326,7 +1338,7 @@
         <v>20957</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1345,7 +1357,7 @@
         <v>20727</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1364,7 +1376,7 @@
         <v>20954</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1383,7 +1395,7 @@
         <v>20169</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1402,7 +1414,7 @@
         <v>21584</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1421,7 +1433,7 @@
         <v>22720</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1440,7 +1452,7 @@
         <v>18909</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1459,7 +1471,7 @@
         <v>21547</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1478,7 +1490,7 @@
         <v>17642</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1497,7 +1509,7 @@
         <v>10438</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1516,7 +1528,7 @@
         <v>20296</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1535,7 +1547,7 @@
         <v>21420</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1554,7 +1566,7 @@
         <v>22419</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1573,7 +1585,7 @@
         <v>22390</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1592,7 +1604,7 @@
         <v>17841</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1611,7 +1623,7 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1630,7 +1642,7 @@
         <v>22962</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1649,7 +1661,7 @@
         <v>22138</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1668,7 +1680,7 @@
         <v>22761</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1687,7 +1699,7 @@
         <v>18503</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>461335</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>9</v>
       </c>
@@ -1717,7 +1729,7 @@
         <v>461335</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1738,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="str">
         <f t="shared" ref="B35:B42" si="3">CHOOSE(WEEKDAY(C35),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Saturday</v>
@@ -1762,7 +1774,7 @@
         <v>12863</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1781,7 +1793,7 @@
         <v>13245</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
@@ -1800,7 +1812,7 @@
         <v>15413</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1819,7 +1831,7 @@
         <v>15225</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
@@ -1838,7 +1850,7 @@
         <v>14854</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1857,7 +1869,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
@@ -1876,7 +1888,7 @@
         <v>16118</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1895,7 +1907,7 @@
         <v>14908</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>114628</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="15" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>114628</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="15" t="s">
         <v>11</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>14812</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
         <v>12</v>
       </c>
@@ -1968,6 +1980,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -2146,29 +2173,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C85642C-D1B5-49B6-9432-A71DAFAF5B14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{054FAFAE-9FD0-4D63-BC0F-91596B036944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F0CB60-5134-44C1-B798-3DE1A90919BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F0CB60-5134-44C1-B798-3DE1A90919BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{054FAFAE-9FD0-4D63-BC0F-91596B036944}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C85642C-D1B5-49B6-9432-A71DAFAF5B14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>